--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -8,21 +8,592 @@
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="2" r:id="rId1"/>
-    <sheet name="Relation" sheetId="3" r:id="rId2"/>
+    <sheet name="Relationship" sheetId="3" r:id="rId2"/>
+    <sheet name="MongoDB Data Modelling" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentManualCount="2"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   _id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> POST_ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TITLE_OF_POST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> POST_DESCRIPTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> POST_BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> URL_OF_POST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TAG1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TAG2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TAG3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   likes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TOTAL_LIKES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   comments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'COMMENT_BY'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TEXT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         dateCreated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> DATE_TIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> LIKES </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>},</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF313131"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> LIKES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF313131"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666600"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000088"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008800"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,8 +616,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,19 +766,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Cassandra, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>HBase, Hypertable và Amazon DynamoDB</a:t>
+            <a:t>Cassandra, HBase, Hypertable và Amazon DynamoDB</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000"/>
         </a:p>
@@ -277,19 +842,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Neo4J, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Infinite Graph, OrientDB, hoặc FlockDB</a:t>
+            <a:t>Neo4J, Infinite Graph, OrientDB, hoặc FlockDB</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000"/>
         </a:p>
@@ -365,19 +918,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>MongoDB, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CouchDB, Terastore, OrientDB, RavenDB.</a:t>
+            <a:t>MongoDB, CouchDB, Terastore, OrientDB, RavenDB.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000"/>
         </a:p>
@@ -2348,6 +2889,222 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> tính khóa bên này làm khóa ngoại bên kia hoặc ngược lại</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143565</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1171575"/>
+          <a:ext cx="4944165" cy="2019582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="4962525"/>
+          <a:ext cx="1609725" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MYSQL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="4962525"/>
+          <a:ext cx="1609725" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MongoDB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="5295901"/>
+          <a:ext cx="1685925" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2646,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,4 +3428,136 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N1:N23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="2" r:id="rId1"/>
-    <sheet name="Relationship" sheetId="3" r:id="rId2"/>
-    <sheet name="MongoDB Data Modelling" sheetId="4" r:id="rId3"/>
+    <sheet name="MongoDB Data Modelling" sheetId="4" r:id="rId2"/>
+    <sheet name="Relationship" sheetId="3" r:id="rId3"/>
+    <sheet name="MongoDB" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentManualCount="2"/>
 </workbook>
@@ -645,16 +647,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -663,7 +665,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10534650" y="5581650"/>
+          <a:off x="11163300" y="4838700"/>
           <a:ext cx="2819400" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -700,16 +702,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -718,8 +720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5876925" y="5019675"/>
-          <a:ext cx="2324100" cy="1238250"/>
+          <a:off x="4914899" y="3676649"/>
+          <a:ext cx="2409825" cy="1343025"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -743,7 +745,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" i="0">
               <a:solidFill>
@@ -754,7 +772,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Row Store: </a:t>
+            <a:t>Column-Family Database: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -776,16 +794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -794,7 +812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="6810375"/>
+          <a:off x="5257800" y="10172700"/>
           <a:ext cx="2095500" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -852,16 +870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -870,7 +888,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6200775" y="3286125"/>
+          <a:off x="5105400" y="666750"/>
           <a:ext cx="2133600" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -928,16 +946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -946,8 +964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8410574" y="8134349"/>
-          <a:ext cx="2505075" cy="1419225"/>
+          <a:off x="4876799" y="6648450"/>
+          <a:ext cx="2533651" cy="1485899"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -982,7 +1000,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Key-Value: </a:t>
+            <a:t>Key-Value Database: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1028,25 +1046,377 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvPr id="13" name="Oval 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11249025" y="8648700"/>
+          <a:off x="8629650" y="6515100"/>
+          <a:ext cx="1676400" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NoSQL: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Only Structured Query Language</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14392275" y="6438900"/>
+          <a:ext cx="1676400" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RDBMS: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Relational</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Database management System </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8753475" y="2905124"/>
+          <a:ext cx="2171700" cy="1438276"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Collection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Document</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Field </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Embeded documents, linking</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Primary key (mặc định là _id do chính Mongo tạo)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14373225" y="2962275"/>
+          <a:ext cx="1609725" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Table</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Row</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Column </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Joins</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Primary key</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17430750" y="7315200"/>
           <a:ext cx="1676400" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1082,19 +1452,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Search Databases: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ElasticSearch</a:t>
+            <a:t>SQL-Sever</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000"/>
         </a:p>
@@ -1104,377 +1462,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvPr id="20" name="Oval 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639175" y="5676900"/>
-          <a:ext cx="1676400" cy="1238250"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>NoSQL: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Not</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Only Structured Query Language</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Oval 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13792200" y="6019800"/>
-          <a:ext cx="1676400" cy="1238250"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>RDBMS: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Relational</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Database management System </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8743950" y="3790949"/>
-          <a:ext cx="2171700" cy="1438276"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Collection</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>- Document</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>- Field </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>- Embeded documents, linking</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>- Primary key (mặc định là _id do chính Mongo tạo)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13744575" y="4305300"/>
-          <a:ext cx="1609725" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Table</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>- Row</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>- Column </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>- Joins</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>- Primary key</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Oval 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16049625" y="6953250"/>
+          <a:off x="17878425" y="1066800"/>
           <a:ext cx="1676400" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1510,7 +1516,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SQL-Sever</a:t>
+            <a:t>Oracle</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000"/>
         </a:p>
@@ -1520,26 +1526,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>481693</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>329293</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Oval 19"/>
+        <xdr:cNvPr id="26" name="Oval 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15678150" y="3162300"/>
-          <a:ext cx="1676400" cy="1238250"/>
+          <a:off x="18851336" y="3811361"/>
+          <a:ext cx="1684564" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1574,601 +1580,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Oracle</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000"/>
+            <a:t>MySQL</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="9496424"/>
-          <a:ext cx="2171700" cy="1438276"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Redis (Cache)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Lưu</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> trữ phiên hoạt động của người dùng.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Oval 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16621125" y="4905375"/>
-          <a:ext cx="1676400" cy="1238250"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MySQL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rounded Rectangle 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3705225" y="7562849"/>
-          <a:ext cx="2171700" cy="1438276"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Neo4J</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Cấu</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> trúc quan hệ node.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Lưu</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> trữ ảnh.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Liệt kê và minh họa các mối quan hệ khác nhau của người dùng</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3476625" y="5343524"/>
-          <a:ext cx="2171700" cy="1438276"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Cassandra</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Multi-master</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>579904</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>398930</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129988</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Oval 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6025963" y="187138"/>
-          <a:ext cx="2239496" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3000"/>
-            <a:t>Relation</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177052</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>188259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>34177</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>131109</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6228228" y="2664759"/>
-          <a:ext cx="1672478" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1"/>
-            <a:t>1-1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133910</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>129427</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>572059</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>72277</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6185086" y="8511427"/>
-          <a:ext cx="1648385" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1"/>
-            <a:t>Many-Many</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>54348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>568138</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>187698</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6185647" y="5388348"/>
-          <a:ext cx="1643903" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1500" b="1"/>
-            <a:t>1-Many</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>189150</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2191,8 +1621,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5457265" cy="2094150"/>
+          <a:off x="0" y="3228975"/>
+          <a:ext cx="4295775" cy="2333625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2209,15 +1639,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>179296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6318</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2240,8 +1670,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="2465296"/>
-          <a:ext cx="5452376" cy="1792940"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4276725" cy="2210189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2259,14 +1689,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>117795</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31001</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579686</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2289,8 +1719,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4880295"/>
-          <a:ext cx="5434853" cy="1818206"/>
+          <a:off x="0" y="6591301"/>
+          <a:ext cx="4237286" cy="2176424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2308,14 +1738,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>601951</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>122672</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>30900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>150349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2338,8 +1768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11385177"/>
-          <a:ext cx="5442892" cy="2262995"/>
+          <a:off x="0" y="9555900"/>
+          <a:ext cx="4267200" cy="2405449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2355,16 +1785,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>69002</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12414</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42183</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>464004</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2387,6 +1817,805 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="6165397" y="13661572"/>
+          <a:ext cx="5932714" cy="3464623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189460</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>67294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>62914</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>93469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15497496" y="13402294"/>
+          <a:ext cx="5996668" cy="3455175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>71499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>531422</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>166749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Oval 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12926787" y="14549499"/>
+          <a:ext cx="1688028" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Xu hướng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143565</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1171575"/>
+          <a:ext cx="4944165" cy="2019582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="4962525"/>
+          <a:ext cx="1609725" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MYSQL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="4962525"/>
+          <a:ext cx="1609725" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MongoDB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="5295900"/>
+          <a:ext cx="1685925" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579904</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6025963" y="187138"/>
+          <a:ext cx="2239496" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3000"/>
+            <a:t>Relation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177052</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34177</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6228228" y="2664759"/>
+          <a:ext cx="1672478" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>1-1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133910</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572059</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>72277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6185086" y="8511427"/>
+          <a:ext cx="1648385" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>Many-Many</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>568138</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>187698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6185647" y="5388348"/>
+          <a:ext cx="1643903" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>1-Many</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>189150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5457265" cy="2094150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6318</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2465296"/>
+          <a:ext cx="5452376" cy="1792940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4880295"/>
+          <a:ext cx="5434853" cy="1818206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601951</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>122672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11385177"/>
+          <a:ext cx="5442892" cy="2262995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12414</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="7879502"/>
           <a:ext cx="5458473" cy="2306645"/>
         </a:xfrm>
@@ -2898,79 +3127,391 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>143565</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>143157</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="1171575"/>
-          <a:ext cx="4944165" cy="2019582"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743075" y="4962525"/>
-          <a:ext cx="1609725" cy="1076325"/>
+          <a:off x="866775" y="1552575"/>
+          <a:ext cx="1447800" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Setup</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>(Ubuntu)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="1657349"/>
+          <a:ext cx="2447925" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>sudo apt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>get install mongodb </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="1628774"/>
+          <a:ext cx="2447925" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>sudo service mongodb start </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="3286125"/>
+          <a:ext cx="1885950" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8553"/>
+            <a:gd name="adj2" fmla="val -155162"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Installing MongoDB on Ubuntu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="3019425"/>
+          <a:ext cx="2343150" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6890"/>
+            <a:gd name="adj2" fmla="val -99543"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Testing your MongoDB install (You should now see a confirmation along the lines of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>mongodb start/running, process 15251</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="704850"/>
+          <a:ext cx="828675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2997,7 +3538,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>MYSQL</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3006,26 +3547,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvPr id="9" name="Oval 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="4962525"/>
-          <a:ext cx="1609725" cy="1076325"/>
+          <a:off x="7715250" y="628650"/>
+          <a:ext cx="828675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3052,7 +3593,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>MongoDB</a:t>
+            <a:t>2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3061,40 +3602,1042 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Right Arrow 4"/>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4924425" y="5295901"/>
-          <a:ext cx="1685925" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+          <a:off x="10220325" y="1628774"/>
+          <a:ext cx="2447925" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mongo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13582650" y="1609724"/>
+          <a:ext cx="2447925" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
           <a:schemeClr val="accent5"/>
         </a:lnRef>
-        <a:fillRef idx="3">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="3">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>show</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> dbs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="676275"/>
+          <a:ext cx="828675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="676275"/>
+          <a:ext cx="828675" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangular Callout 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="3228975"/>
+          <a:ext cx="1885950" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8553"/>
+            <a:gd name="adj2" fmla="val -155162"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To enter the MongoDB shell</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangular Callout 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13916025" y="3228975"/>
+          <a:ext cx="1885950" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8553"/>
+            <a:gd name="adj2" fmla="val -155162"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>List all databases</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flowchart: Magnetic Disk 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543301" y="7667625"/>
+          <a:ext cx="2171700" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Create Database</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="9315449"/>
+          <a:ext cx="2447925" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>use</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> binhnc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangular Callout 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="10925175"/>
+          <a:ext cx="2209800" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6890"/>
+            <a:gd name="adj2" fmla="val -99543"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MangoDB doesn’t create any database yet, until you save something inside.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flowchart: Magnetic Disk 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867651" y="7743825"/>
+          <a:ext cx="2171700" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Save Collection</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="9353549"/>
+          <a:ext cx="3248025" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>db.information.save({_id:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> 1, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>hoten:"Nguyen Cong Binh"})</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rounded Rectangular Callout 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="10896600"/>
+          <a:ext cx="2381250" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6890"/>
+            <a:gd name="adj2" fmla="val -99543"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Insert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> collection information with data: "hoten":"Nguyen Cong Binh"  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Flowchart: Magnetic Disk 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877676" y="7734300"/>
+          <a:ext cx="2171700" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Show information</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Collection</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Flowchart: Punched Tape 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010524" y="6657975"/>
+          <a:ext cx="1876425" cy="804672"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedTape">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>show</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> collections -&gt; show all collection in database is used</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="8858250"/>
+          <a:ext cx="1447800" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>Used </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>(Ubuntu)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Flowchart: Process 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="20278725" cy="8191499"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3106,6 +4649,571 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Flowchart: Process 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38100"/>
+          <a:ext cx="16792575" cy="5572125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="9382124"/>
+          <a:ext cx="3248025" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>db.information.find()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rounded Rectangular Callout 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="10801350"/>
+          <a:ext cx="2381250" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6890"/>
+            <a:gd name="adj2" fmla="val -99543"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Insert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> collection information with data: "hoten":"Nguyen Cong Binh"  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Explosion 1 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714749" y="12030075"/>
+          <a:ext cx="2752726" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Database: binhnc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Explosion 1 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696199" y="11982451"/>
+          <a:ext cx="2714626" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Collection: information</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Flowchart: Magnetic Disk 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16335376" y="7658100"/>
+          <a:ext cx="2171700" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Collection</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15792451" y="9286874"/>
+          <a:ext cx="3200399" cy="857251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>db.information.remove({...},1) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>db.information.update({...},{...})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rounded Rectangular Callout 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16144875" y="10810875"/>
+          <a:ext cx="2381250" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6890"/>
+            <a:gd name="adj2" fmla="val -99543"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Insert,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> update, delete data ...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3403,8 +5511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,26 +5524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,4 +5652,50 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="2" r:id="rId1"/>
     <sheet name="MongoDB Data Modelling" sheetId="4" r:id="rId2"/>
     <sheet name="Relationship" sheetId="3" r:id="rId3"/>
     <sheet name="MongoDB" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="MySQL" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentManualCount="2"/>
 </workbook>
@@ -643,6 +643,7402 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10100"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent2">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent2">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10300"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst/>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{ABFCA51C-8907-4728-BF5F-D0625960EB8E}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList3" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d2" qsCatId="3D" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful1" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1BFAA318-5156-460D-9825-33CB56B141AE}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Transaction</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5ECF8AD6-138D-419B-9ACE-6E75663F16A3}" type="parTrans" cxnId="{AF6B2772-8DF9-4D94-A277-D82426015FF0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5AF68616-6885-4E51-9D51-3659465DB107}" type="sibTrans" cxnId="{AF6B2772-8DF9-4D94-A277-D82426015FF0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD20832B-DBF1-44E9-9529-778E65EF3A4A}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Atomicity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0" i="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{916A1B67-CEEA-482C-91FA-AC6F2C852824}" type="parTrans" cxnId="{C71B3D94-0A4D-4D92-B5F8-6D2D37E33710}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EABBEBBC-5849-4C80-BC7C-17FBED774449}" type="sibTrans" cxnId="{C71B3D94-0A4D-4D92-B5F8-6D2D37E33710}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E40C83E-D943-42C1-9601-7F9EF8D10BDD}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Consistency</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0" i="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B2730E16-D0B0-4715-A792-0878B8E0CEE6}" type="parTrans" cxnId="{A8D2012D-DEA8-4BEB-881F-FE825D76E89B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FB0338D1-DB61-4B3C-A443-30604DB81C38}" type="sibTrans" cxnId="{A8D2012D-DEA8-4BEB-881F-FE825D76E89B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CFBD26DD-4185-4486-A8A6-6FC0F4DD6A02}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Isolation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0" i="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AD96A8BD-4A44-4633-A2BE-DD3EC34AAE73}" type="parTrans" cxnId="{1270B153-0855-4349-8C65-4455AD4C420A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{31E7E638-AD7E-4A13-82F9-C5D3CB1820A3}" type="sibTrans" cxnId="{1270B153-0855-4349-8C65-4455AD4C420A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4D34A3A-901A-45D3-9860-05D273682609}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0"/>
+            <a:t>Durability</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0" i="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F322961B-4548-41B2-A952-490D3497C369}" type="parTrans" cxnId="{9D16EFC2-EA2D-4FE8-A652-905B5352159C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C1B19518-64DE-48AF-AC00-07E1B136CED0}" type="sibTrans" cxnId="{9D16EFC2-EA2D-4FE8-A652-905B5352159C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C334CE7C-E12D-413F-967E-F9C2C3F69321}" type="pres">
+      <dgm:prSet presAssocID="{ABFCA51C-8907-4728-BF5F-D0625960EB8E}" presName="composite" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F217DE0E-3AA6-42BC-962A-E65BDA73CC13}" type="pres">
+      <dgm:prSet presAssocID="{1BFAA318-5156-460D-9825-33CB56B141AE}" presName="roof" presStyleLbl="dkBgShp" presStyleIdx="0" presStyleCnt="2" custLinFactNeighborX="-14375" custLinFactNeighborY="10417"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8B874262-7777-4054-8215-17463D81F8B5}" type="pres">
+      <dgm:prSet presAssocID="{1BFAA318-5156-460D-9825-33CB56B141AE}" presName="pillars" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3311F06B-135E-4D6B-98B8-5ED832C93498}" type="pres">
+      <dgm:prSet presAssocID="{1BFAA318-5156-460D-9825-33CB56B141AE}" presName="pillar1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A14A7545-86F5-4C10-A483-7F77067EC4EE}" type="pres">
+      <dgm:prSet presAssocID="{5E40C83E-D943-42C1-9601-7F9EF8D10BDD}" presName="pillarX" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6F59E5AC-8517-4B98-B056-F47A6266E039}" type="pres">
+      <dgm:prSet presAssocID="{CFBD26DD-4185-4486-A8A6-6FC0F4DD6A02}" presName="pillarX" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A3E18822-BF31-400F-976C-A7C56B6F945F}" type="pres">
+      <dgm:prSet presAssocID="{C4D34A3A-901A-45D3-9860-05D273682609}" presName="pillarX" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A64A461B-802C-4EA4-A784-1BCCB0CEC12E}" type="pres">
+      <dgm:prSet presAssocID="{1BFAA318-5156-460D-9825-33CB56B141AE}" presName="base" presStyleLbl="dkBgShp" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{D6642ABB-3AE0-4A16-AC10-C46D0488A475}" type="presOf" srcId="{ABFCA51C-8907-4728-BF5F-D0625960EB8E}" destId="{C334CE7C-E12D-413F-967E-F9C2C3F69321}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{91D6340F-15E8-4824-B490-0634F85CA793}" type="presOf" srcId="{C4D34A3A-901A-45D3-9860-05D273682609}" destId="{A3E18822-BF31-400F-976C-A7C56B6F945F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{C71B3D94-0A4D-4D92-B5F8-6D2D37E33710}" srcId="{1BFAA318-5156-460D-9825-33CB56B141AE}" destId="{DD20832B-DBF1-44E9-9529-778E65EF3A4A}" srcOrd="0" destOrd="0" parTransId="{916A1B67-CEEA-482C-91FA-AC6F2C852824}" sibTransId="{EABBEBBC-5849-4C80-BC7C-17FBED774449}"/>
+    <dgm:cxn modelId="{AF6B2772-8DF9-4D94-A277-D82426015FF0}" srcId="{ABFCA51C-8907-4728-BF5F-D0625960EB8E}" destId="{1BFAA318-5156-460D-9825-33CB56B141AE}" srcOrd="0" destOrd="0" parTransId="{5ECF8AD6-138D-419B-9ACE-6E75663F16A3}" sibTransId="{5AF68616-6885-4E51-9D51-3659465DB107}"/>
+    <dgm:cxn modelId="{A8D2012D-DEA8-4BEB-881F-FE825D76E89B}" srcId="{1BFAA318-5156-460D-9825-33CB56B141AE}" destId="{5E40C83E-D943-42C1-9601-7F9EF8D10BDD}" srcOrd="1" destOrd="0" parTransId="{B2730E16-D0B0-4715-A792-0878B8E0CEE6}" sibTransId="{FB0338D1-DB61-4B3C-A443-30604DB81C38}"/>
+    <dgm:cxn modelId="{1270B153-0855-4349-8C65-4455AD4C420A}" srcId="{1BFAA318-5156-460D-9825-33CB56B141AE}" destId="{CFBD26DD-4185-4486-A8A6-6FC0F4DD6A02}" srcOrd="2" destOrd="0" parTransId="{AD96A8BD-4A44-4633-A2BE-DD3EC34AAE73}" sibTransId="{31E7E638-AD7E-4A13-82F9-C5D3CB1820A3}"/>
+    <dgm:cxn modelId="{6EBE7594-B3A4-4584-A402-037E4608B52B}" type="presOf" srcId="{5E40C83E-D943-42C1-9601-7F9EF8D10BDD}" destId="{A14A7545-86F5-4C10-A483-7F77067EC4EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{844ACBC6-9293-4A40-B2AA-F4422A554C5A}" type="presOf" srcId="{1BFAA318-5156-460D-9825-33CB56B141AE}" destId="{F217DE0E-3AA6-42BC-962A-E65BDA73CC13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{9D16EFC2-EA2D-4FE8-A652-905B5352159C}" srcId="{1BFAA318-5156-460D-9825-33CB56B141AE}" destId="{C4D34A3A-901A-45D3-9860-05D273682609}" srcOrd="3" destOrd="0" parTransId="{F322961B-4548-41B2-A952-490D3497C369}" sibTransId="{C1B19518-64DE-48AF-AC00-07E1B136CED0}"/>
+    <dgm:cxn modelId="{8137F4DA-6770-4C0E-A039-03784D9DCE56}" type="presOf" srcId="{DD20832B-DBF1-44E9-9529-778E65EF3A4A}" destId="{3311F06B-135E-4D6B-98B8-5ED832C93498}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{C1D75C0A-500C-4C97-9DAD-85E8EBFF38AE}" type="presOf" srcId="{CFBD26DD-4185-4486-A8A6-6FC0F4DD6A02}" destId="{6F59E5AC-8517-4B98-B056-F47A6266E039}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{0F1F1330-E5B6-4375-815D-983F7607BC8D}" type="presParOf" srcId="{C334CE7C-E12D-413F-967E-F9C2C3F69321}" destId="{F217DE0E-3AA6-42BC-962A-E65BDA73CC13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{E8778AD8-FC48-48A1-AC13-2971B948A8C8}" type="presParOf" srcId="{C334CE7C-E12D-413F-967E-F9C2C3F69321}" destId="{8B874262-7777-4054-8215-17463D81F8B5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{BD06F157-CC2A-43F9-8EA1-1AF8947BDC5C}" type="presParOf" srcId="{8B874262-7777-4054-8215-17463D81F8B5}" destId="{3311F06B-135E-4D6B-98B8-5ED832C93498}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{C4622048-316C-4F71-8C8D-DCB255CA409A}" type="presParOf" srcId="{8B874262-7777-4054-8215-17463D81F8B5}" destId="{A14A7545-86F5-4C10-A483-7F77067EC4EE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{C7674D05-638E-429B-8D46-606241C15283}" type="presParOf" srcId="{8B874262-7777-4054-8215-17463D81F8B5}" destId="{6F59E5AC-8517-4B98-B056-F47A6266E039}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{70917A9F-8339-4F04-8365-7FB438239365}" type="presParOf" srcId="{8B874262-7777-4054-8215-17463D81F8B5}" destId="{A3E18822-BF31-400F-976C-A7C56B6F945F}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+    <dgm:cxn modelId="{B86EC48B-5CE3-4131-876B-F362DE507253}" type="presParOf" srcId="{C334CE7C-E12D-413F-967E-F9C2C3F69321}" destId="{A64A461B-802C-4EA4-A784-1BCCB0CEC12E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList3"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+    <a:ext uri="{C62137D5-CB1D-491B-B009-E17868A290BF}">
+      <dgm14:recolorImg xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" val="1"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful3" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{03A72346-DCAE-48B7-89C7-811C871E6B51}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CASCADE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" b="0" i="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>: Tự động xoá (cập nhật) nếu bản ghi được tham chiếu bị xoá (cập nhật).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C773BB93-1F64-44E5-A1FA-A6120A037B09}" type="parTrans" cxnId="{292DA4C4-64F2-42CF-9C18-B332DEB3933C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A8635DE8-5651-46B4-B14D-943F2BB67CB9}" type="sibTrans" cxnId="{292DA4C4-64F2-42CF-9C18-B332DEB3933C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>NO ACTION</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" b="0" i="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>: (Mặc định) Nếu bản ghi trong bảng tham chiếu đang được tham chiếu bởi một bản ghi bất kỳ trong bảng được định nghĩa thì bàn ghi đó không được phép xoá hoặc cập nhật (đối với cột được tham chiếu).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{02A9FC4A-6426-46C0-BCD9-8B96D20A3EBB}" type="parTrans" cxnId="{8FD486D1-2F12-4305-ADD3-F9B94172A9CB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2D83D5C8-8D2A-4635-8092-BB08C680416F}" type="sibTrans" cxnId="{8FD486D1-2F12-4305-ADD3-F9B94172A9CB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{84CE53D7-D39F-401E-BB3A-D5545A76068F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SET NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0" i="0"/>
+            <a:t>: Cập nhật lại khoá ngoài của bản ghi thành giá trị NULL (nếu cột cho phép nhận giá trị NULL).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{16DD73E5-D81E-4615-B351-D9F495DE60F2}" type="parTrans" cxnId="{ADC07144-775F-4203-B775-DE95F052A0F8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{78CD04B9-8C2E-414C-A61F-34A30FCAAFDE}" type="sibTrans" cxnId="{ADC07144-775F-4203-B775-DE95F052A0F8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SET DEFAULT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0" i="0"/>
+            <a:t>: Cập nhật lại khoá ngoài của bản ghi nhận giá trị mặc định (nếu cột có qui định giá trị mặc định).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{05465ADC-CA14-4110-AEE2-A455DBBCF1BC}" type="parTrans" cxnId="{314A52B3-B294-43AF-9BA2-D05DA7EED706}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B45D00C4-6F1F-48DB-9621-98A4FB2C7F8A}" type="sibTrans" cxnId="{314A52B3-B294-43AF-9BA2-D05DA7EED706}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0E0AFFF5-D0B5-4C9D-9814-98CD1317491B}" type="pres">
+      <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="7"/>
+          <dgm:chPref val="7"/>
+          <dgm:dir/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" type="pres">
+      <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="Name1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{39A93D71-5D35-45BC-B0D4-2A91B2A64DCC}" type="pres">
+      <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="cycle" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E7EB62BD-EEF9-415D-B744-721AAE52635C}" type="pres">
+      <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="srcNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D08439FE-3ED9-48B1-A6D6-42BCC89C75ED}" type="pres">
+      <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="conn" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FD20AFDD-498C-49AA-9F42-3CB5C54B1AF5}" type="pres">
+      <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="extraNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A6939892-0338-4E92-A24E-115E758EB8FC}" type="pres">
+      <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="dstNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28B88B0F-0536-49AC-B6A4-4D05D46FF5E5}" type="pres">
+      <dgm:prSet presAssocID="{03A72346-DCAE-48B7-89C7-811C871E6B51}" presName="text_1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C6FA53D9-CE24-4C63-B9CB-AC48609A9EA9}" type="pres">
+      <dgm:prSet presAssocID="{03A72346-DCAE-48B7-89C7-811C871E6B51}" presName="accent_1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{99AE342B-3B6D-4D3C-AB44-9B44A1CD4B2D}" type="pres">
+      <dgm:prSet presAssocID="{03A72346-DCAE-48B7-89C7-811C871E6B51}" presName="accentRepeatNode" presStyleLbl="solidFgAcc1" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7575D59C-E412-4245-8671-9A2FA19C7B88}" type="pres">
+      <dgm:prSet presAssocID="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" presName="text_2" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{08891D38-6462-4343-8D79-6EAEAAB76EFB}" type="pres">
+      <dgm:prSet presAssocID="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" presName="accent_2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DD8F60C1-4651-456E-9207-42EF063CF9A9}" type="pres">
+      <dgm:prSet presAssocID="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" presName="accentRepeatNode" presStyleLbl="solidFgAcc1" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{913D56CB-EBFF-4EDA-B149-1CDB0D79D376}" type="pres">
+      <dgm:prSet presAssocID="{84CE53D7-D39F-401E-BB3A-D5545A76068F}" presName="text_3" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4FF88E8C-E908-42C9-938C-8176B4784627}" type="pres">
+      <dgm:prSet presAssocID="{84CE53D7-D39F-401E-BB3A-D5545A76068F}" presName="accent_3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B76772FB-FFD0-4D90-93C3-E7804861016D}" type="pres">
+      <dgm:prSet presAssocID="{84CE53D7-D39F-401E-BB3A-D5545A76068F}" presName="accentRepeatNode" presStyleLbl="solidFgAcc1" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{397E5E61-9355-4F61-A8E4-F9C335473227}" type="pres">
+      <dgm:prSet presAssocID="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}" presName="text_4" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9CD6F259-F9AE-4D8C-9B88-4238EC4613B4}" type="pres">
+      <dgm:prSet presAssocID="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}" presName="accent_4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1699E5AC-6697-4678-AC5E-00C37DEE4DF2}" type="pres">
+      <dgm:prSet presAssocID="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}" presName="accentRepeatNode" presStyleLbl="solidFgAcc1" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{ADC07144-775F-4203-B775-DE95F052A0F8}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{84CE53D7-D39F-401E-BB3A-D5545A76068F}" srcOrd="2" destOrd="0" parTransId="{16DD73E5-D81E-4615-B351-D9F495DE60F2}" sibTransId="{78CD04B9-8C2E-414C-A61F-34A30FCAAFDE}"/>
+    <dgm:cxn modelId="{314A52B3-B294-43AF-9BA2-D05DA7EED706}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}" srcOrd="3" destOrd="0" parTransId="{05465ADC-CA14-4110-AEE2-A455DBBCF1BC}" sibTransId="{B45D00C4-6F1F-48DB-9621-98A4FB2C7F8A}"/>
+    <dgm:cxn modelId="{CEDBBE7E-1B9D-4ADC-9A05-82D120E05C6A}" type="presOf" srcId="{A8635DE8-5651-46B4-B14D-943F2BB67CB9}" destId="{D08439FE-3ED9-48B1-A6D6-42BCC89C75ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{79B59F0F-76E7-4141-8424-708E61F58A08}" type="presOf" srcId="{84CE53D7-D39F-401E-BB3A-D5545A76068F}" destId="{913D56CB-EBFF-4EDA-B149-1CDB0D79D376}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{3F9210E5-19B7-4A3F-81D9-03B12609A585}" type="presOf" srcId="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}" destId="{397E5E61-9355-4F61-A8E4-F9C335473227}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{292DA4C4-64F2-42CF-9C18-B332DEB3933C}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{03A72346-DCAE-48B7-89C7-811C871E6B51}" srcOrd="0" destOrd="0" parTransId="{C773BB93-1F64-44E5-A1FA-A6120A037B09}" sibTransId="{A8635DE8-5651-46B4-B14D-943F2BB67CB9}"/>
+    <dgm:cxn modelId="{B72276D4-7200-4A07-8525-C0897F25113E}" type="presOf" srcId="{03A72346-DCAE-48B7-89C7-811C871E6B51}" destId="{28B88B0F-0536-49AC-B6A4-4D05D46FF5E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{8FD486D1-2F12-4305-ADD3-F9B94172A9CB}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" srcOrd="1" destOrd="0" parTransId="{02A9FC4A-6426-46C0-BCD9-8B96D20A3EBB}" sibTransId="{2D83D5C8-8D2A-4635-8092-BB08C680416F}"/>
+    <dgm:cxn modelId="{A194B43D-483B-4C43-98B0-F03B59921642}" type="presOf" srcId="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" destId="{7575D59C-E412-4245-8671-9A2FA19C7B88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{B352FF68-5B8B-4CCE-A566-E10A1AA27881}" type="presOf" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{0E0AFFF5-D0B5-4C9D-9814-98CD1317491B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{27CB8A9D-B3CE-4EE2-B087-283F18C385A6}" type="presParOf" srcId="{0E0AFFF5-D0B5-4C9D-9814-98CD1317491B}" destId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{52EE70BC-0178-4997-A830-D0F5D439E096}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{39A93D71-5D35-45BC-B0D4-2A91B2A64DCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{DB4FAD53-1D9F-401E-AB46-888088E1DA02}" type="presParOf" srcId="{39A93D71-5D35-45BC-B0D4-2A91B2A64DCC}" destId="{E7EB62BD-EEF9-415D-B744-721AAE52635C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{DDD5B98A-3108-46F7-B14E-8A4E6B98E040}" type="presParOf" srcId="{39A93D71-5D35-45BC-B0D4-2A91B2A64DCC}" destId="{D08439FE-3ED9-48B1-A6D6-42BCC89C75ED}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{459206D0-421E-440D-95B7-3B7EC63B3CCE}" type="presParOf" srcId="{39A93D71-5D35-45BC-B0D4-2A91B2A64DCC}" destId="{FD20AFDD-498C-49AA-9F42-3CB5C54B1AF5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{BC2C2E96-041A-4E19-B289-FB61E7E1D924}" type="presParOf" srcId="{39A93D71-5D35-45BC-B0D4-2A91B2A64DCC}" destId="{A6939892-0338-4E92-A24E-115E758EB8FC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{EDF868A1-C354-440E-ABAC-515C8B2D5F7A}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{28B88B0F-0536-49AC-B6A4-4D05D46FF5E5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{50AF1BFE-7E80-4369-9577-F3DF7BE1ABC6}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{C6FA53D9-CE24-4C63-B9CB-AC48609A9EA9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{7D1B428F-8131-4394-A849-C73ABC43ACBD}" type="presParOf" srcId="{C6FA53D9-CE24-4C63-B9CB-AC48609A9EA9}" destId="{99AE342B-3B6D-4D3C-AB44-9B44A1CD4B2D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{6A40EFF7-2AE2-4B0E-8F18-DB4BC89043E5}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{7575D59C-E412-4245-8671-9A2FA19C7B88}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{9ACB33D0-4CDB-433D-B75B-1EA32A66C78C}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{08891D38-6462-4343-8D79-6EAEAAB76EFB}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{16E5B59B-801C-4109-A81D-7CF3E3ECFAFF}" type="presParOf" srcId="{08891D38-6462-4343-8D79-6EAEAAB76EFB}" destId="{DD8F60C1-4651-456E-9207-42EF063CF9A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{20829E32-A817-4776-9C9E-2F1BEE21DB01}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{913D56CB-EBFF-4EDA-B149-1CDB0D79D376}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{9E962EE9-D3F9-4CD5-8098-903B8223C02F}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{4FF88E8C-E908-42C9-938C-8176B4784627}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{2CAF674E-C8FA-411C-BC27-87151D953BD2}" type="presParOf" srcId="{4FF88E8C-E908-42C9-938C-8176B4784627}" destId="{B76772FB-FFD0-4D90-93C3-E7804861016D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{32A11D9A-1009-413F-A6DE-C893DEA5511D}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{397E5E61-9355-4F61-A8E4-F9C335473227}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{5BFE24DE-3F4E-40CC-9C5F-7F5D9CA6B943}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{9CD6F259-F9AE-4D8C-9B88-4238EC4613B4}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{ECD09F13-DB92-438B-85F4-6C77D7EA9408}" type="presParOf" srcId="{9CD6F259-F9AE-4D8C-9B88-4238EC4613B4}" destId="{1699E5AC-6697-4678-AC5E-00C37DEE4DF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId10" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{F217DE0E-3AA6-42BC-962A-E65BDA73CC13}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="85727"/>
+          <a:ext cx="4536141" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:shade val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="7500000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+          <a:bevelB w="88900" h="121750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="144780" tIns="144780" rIns="144780" bIns="144780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1689100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3800" kern="1200"/>
+            <a:t>Transaction</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="85727"/>
+        <a:ext cx="4536141" cy="822960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3311F06B-135E-4D6B-98B8-5ED832C93498}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="822960"/>
+          <a:ext cx="1134035" cy="1728216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="accent2">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="7500000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="57150" tIns="57150" rIns="57150" bIns="57150" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Atomicity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="0" i="0" kern="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="822960"/>
+        <a:ext cx="1134035" cy="1728216"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A14A7545-86F5-4C10-A483-7F77067EC4EE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1134035" y="822960"/>
+          <a:ext cx="1134035" cy="1728216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="7500000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="57150" tIns="57150" rIns="57150" bIns="57150" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Consistency</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="0" i="0" kern="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1134035" y="822960"/>
+        <a:ext cx="1134035" cy="1728216"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6F59E5AC-8517-4B98-B056-F47A6266E039}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2268070" y="822960"/>
+          <a:ext cx="1134035" cy="1728216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="7500000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="57150" tIns="57150" rIns="57150" bIns="57150" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Isolation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="0" i="0" kern="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2268070" y="822960"/>
+        <a:ext cx="1134035" cy="1728216"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A3E18822-BF31-400F-976C-A7C56B6F945F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3402105" y="822960"/>
+          <a:ext cx="1134035" cy="1728216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="7500000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="57150" tIns="57150" rIns="57150" bIns="57150" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1" i="0" kern="1200"/>
+            <a:t>Durability</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="0" i="0" kern="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3402105" y="822960"/>
+        <a:ext cx="1134035" cy="1728216"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A64A461B-802C-4EA4-A784-1BCCB0CEC12E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2551176"/>
+          <a:ext cx="4536141" cy="192024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:shade val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="7500000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+          <a:bevelB w="88900" h="121750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{D08439FE-3ED9-48B1-A6D6-42BCC89C75ED}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="-3768144" y="-578805"/>
+          <a:ext cx="4491360" cy="4491360"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18900000"/>
+            <a:gd name="adj2" fmla="val 2700000"/>
+            <a:gd name="adj3" fmla="val 481"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{28B88B0F-0536-49AC-B6A4-4D05D46FF5E5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="379066" y="256298"/>
+          <a:ext cx="6033549" cy="512864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="407086" tIns="25400" rIns="25400" bIns="25400" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1000" b="1" i="0" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CASCADE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1000" b="0" i="0" kern="1200">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>: Tự động xoá (cập nhật) nếu bản ghi được tham chiếu bị xoá (cập nhật).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="379066" y="256298"/>
+        <a:ext cx="6033549" cy="512864"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{99AE342B-3B6D-4D3C-AB44-9B44A1CD4B2D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="58526" y="192190"/>
+          <a:ext cx="641080" cy="641080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7575D59C-E412-4245-8671-9A2FA19C7B88}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="673103" y="1025728"/>
+          <a:ext cx="5739512" cy="512864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:hueOff val="3750088"/>
+            <a:satOff val="-5627"/>
+            <a:lumOff val="-915"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="407086" tIns="25400" rIns="25400" bIns="25400" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1000" b="1" i="0" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>NO ACTION</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1000" b="0" i="0" kern="1200">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>: (Mặc định) Nếu bản ghi trong bảng tham chiếu đang được tham chiếu bởi một bản ghi bất kỳ trong bảng được định nghĩa thì bàn ghi đó không được phép xoá hoặc cập nhật (đối với cột được tham chiếu).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="673103" y="1025728"/>
+        <a:ext cx="5739512" cy="512864"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DD8F60C1-4651-456E-9207-42EF063CF9A9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="352563" y="961620"/>
+          <a:ext cx="641080" cy="641080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:hueOff val="3750088"/>
+              <a:satOff val="-5627"/>
+              <a:lumOff val="-915"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{913D56CB-EBFF-4EDA-B149-1CDB0D79D376}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="673103" y="1795157"/>
+          <a:ext cx="5739512" cy="512864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:hueOff val="7500176"/>
+            <a:satOff val="-11253"/>
+            <a:lumOff val="-1830"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="407086" tIns="25400" rIns="25400" bIns="25400" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SET NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" kern="1200"/>
+            <a:t>: Cập nhật lại khoá ngoài của bản ghi thành giá trị NULL (nếu cột cho phép nhận giá trị NULL).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="673103" y="1795157"/>
+        <a:ext cx="5739512" cy="512864"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B76772FB-FFD0-4D90-93C3-E7804861016D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="352563" y="1731049"/>
+          <a:ext cx="641080" cy="641080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:hueOff val="7500176"/>
+              <a:satOff val="-11253"/>
+              <a:lumOff val="-1830"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{397E5E61-9355-4F61-A8E4-F9C335473227}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="379066" y="2564587"/>
+          <a:ext cx="6033549" cy="512864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:hueOff val="11250264"/>
+            <a:satOff val="-16880"/>
+            <a:lumOff val="-2745"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="407086" tIns="25400" rIns="25400" bIns="25400" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SET DEFAULT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" kern="1200"/>
+            <a:t>: Cập nhật lại khoá ngoài của bản ghi nhận giá trị mặc định (nếu cột có qui định giá trị mặc định).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="379066" y="2564587"/>
+        <a:ext cx="6033549" cy="512864"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1699E5AC-6697-4678-AC5E-00C37DEE4DF2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="58526" y="2500479"/>
+          <a:ext cx="641080" cy="641080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:hueOff val="11250264"/>
+              <a:satOff val="-16880"/>
+              <a:lumOff val="-2745"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="19000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="1" destId="4" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="5"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="6" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="4" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="1" destId="5" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="composite">
+    <dgm:varLst>
+      <dgm:chMax val="1"/>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite"/>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" forName="roof" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="roof" refType="h" fact="0.3"/>
+      <dgm:constr type="primFontSz" for="ch" forName="roof" val="65"/>
+      <dgm:constr type="w" for="ch" forName="pillars" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="pillars" refType="h" fact="0.63"/>
+      <dgm:constr type="t" for="ch" forName="pillars" refType="h" fact="0.3"/>
+      <dgm:constr type="primFontSz" for="des" forName="pillar1" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="pillarX" refType="primFontSz" refFor="des" refForName="pillar1" op="equ"/>
+      <dgm:constr type="w" for="ch" forName="base" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="base" refType="h" fact="0.07"/>
+      <dgm:constr type="t" for="ch" forName="base" refType="h" fact="0.93"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name0" axis="ch" ptType="node" cnt="1">
+      <dgm:layoutNode name="roof" styleLbl="dkBgShp">
+        <dgm:alg type="tx"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf axis="self"/>
+        <dgm:constrLst>
+          <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="pillars" styleLbl="node1">
+        <dgm:choose name="Name1">
+          <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+            <dgm:alg type="lin">
+              <dgm:param type="linDir" val="fromL"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name3">
+            <dgm:alg type="lin">
+              <dgm:param type="linDir" val="fromR"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" forName="pillar1" refType="w"/>
+          <dgm:constr type="h" for="ch" forName="pillar1" refType="h"/>
+          <dgm:constr type="w" for="ch" forName="pillarX" refType="w"/>
+          <dgm:constr type="h" for="ch" forName="pillarX" refType="h"/>
+        </dgm:constrLst>
+        <dgm:ruleLst/>
+        <dgm:layoutNode name="pillar1" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:forEach name="Name4" axis="ch" ptType="node" st="2">
+          <dgm:layoutNode name="pillarX" styleLbl="node1">
+            <dgm:varLst>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:forEach>
+      </dgm:layoutNode>
+      <dgm:layoutNode name="base" styleLbl="dkBgShp">
+        <dgm:alg type="sp"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst/>
+        <dgm:ruleLst/>
+      </dgm:layoutNode>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="20000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:chMax val="7"/>
+      <dgm:chPref val="7"/>
+      <dgm:dir/>
+    </dgm:varLst>
+    <dgm:alg type="composite"/>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" refType="h" refFor="ch" op="gte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:layoutNode name="Name1">
+      <dgm:alg type="composite"/>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:choose name="Name2">
+        <dgm:if name="Name3" func="var" arg="dir" op="equ" val="norm">
+          <dgm:choose name="Name4">
+            <dgm:if name="Name5" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.625"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.2253"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name6" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.3571"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.2857"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.1891"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.3571"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.7143"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.1891"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name7" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.2"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.1526"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.2253"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.8"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.1526"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name8" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.1538"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.1268"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.3846"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.215"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.6154"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.215"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.8462"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="h" fact="0.1268"/>
+                <dgm:constr type="l" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name9" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.125"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.1082"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.3125"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.1978"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.2253"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.6875"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="h" fact="0.1978"/>
+                <dgm:constr type="l" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.875"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="h" fact="0.1082"/>
+                <dgm:constr type="l" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name10" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.1053"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.0943"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.2632"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.1809"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.4211"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.2205"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.5789"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="h" fact="0.2205"/>
+                <dgm:constr type="l" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.7368"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="h" fact="0.1809"/>
+                <dgm:constr type="l" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_6" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_6" refType="h" refFor="ch" refForName="accent_6" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_6" refType="h" fact="0.8947"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_6" refType="h" fact="0.0943"/>
+                <dgm:constr type="l" for="ch" forName="text_6" refType="ctrX" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="r" for="ch" forName="text_6" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_6" refType="h" refFor="ch" refForName="text_6" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_6" refType="h" refFor="ch" refForName="accent_6" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_6" refType="ctrY" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_6" refType="w" refFor="ch" refForName="accent_6" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name11">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="l" for="ch" forName="cycle"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.0909"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="h" fact="0.0835"/>
+                <dgm:constr type="l" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.2273"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="h" fact="0.1658"/>
+                <dgm:constr type="l" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.3636"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="h" fact="0.2109"/>
+                <dgm:constr type="l" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="h" fact="0.2253"/>
+                <dgm:constr type="l" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.6364"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="h" fact="0.2109"/>
+                <dgm:constr type="l" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_6" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_6" refType="h" refFor="ch" refForName="accent_6" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_6" refType="h" fact="0.7727"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_6" refType="h" fact="0.1658"/>
+                <dgm:constr type="l" for="ch" forName="text_6" refType="ctrX" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="r" for="ch" forName="text_6" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_6" refType="h" refFor="ch" refForName="text_6" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_6" refType="h" refFor="ch" refForName="accent_6" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_6" refType="ctrY" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_6" refType="w" refFor="ch" refForName="accent_6" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_7" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_7" refType="h" refFor="ch" refForName="accent_7" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_7" refType="h" fact="0.9091"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_7" refType="h" fact="0.0835"/>
+                <dgm:constr type="l" for="ch" forName="text_7" refType="ctrX" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="r" for="ch" forName="text_7" refType="w"/>
+                <dgm:constr type="w" for="ch" forName="text_7" refType="h" refFor="ch" refForName="text_7" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_7" refType="h" refFor="ch" refForName="accent_7" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_7" refType="ctrY" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="lMarg" for="ch" forName="text_7" refType="w" refFor="ch" refForName="accent_7" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:else name="Name12">
+          <dgm:choose name="Name13">
+            <dgm:if name="Name14" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.625"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.2253"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name15" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.3571"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.2857"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.1891"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.3571"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.7143"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.1891"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name16" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.2"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.1526"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.2253"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.25"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.8"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.1526"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name17" axis="ch" ptType="node" func="cnt" op="equ" val="4">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.1538"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.1268"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.3846"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.215"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.6154"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.215"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1923"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.8462"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_4" refType="h" fact="-0.1268"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rOff" for="ch" forName="text_4" refType="ctrXOff" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="l" for="ch" forName="text_4"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name18" axis="ch" ptType="node" func="cnt" op="equ" val="5">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.125"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.1082"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.3125"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.1978"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.2253"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.6875"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_4" refType="h" fact="-0.1978"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rOff" for="ch" forName="text_4" refType="ctrXOff" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="l" for="ch" forName="text_4"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1563"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.875"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_5" refType="h" fact="-0.1082"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rOff" for="ch" forName="text_5" refType="ctrXOff" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="l" for="ch" forName="text_5"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:if name="Name19" axis="ch" ptType="node" func="cnt" op="equ" val="6">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.1053"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.0943"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.2632"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.1809"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.4211"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.2205"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.5789"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_4" refType="h" fact="-0.2205"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rOff" for="ch" forName="text_4" refType="ctrXOff" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="l" for="ch" forName="text_4"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.7368"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_5" refType="h" fact="-0.1809"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rOff" for="ch" forName="text_5" refType="ctrXOff" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="l" for="ch" forName="text_5"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_6" refType="h" fact="0.1316"/>
+                <dgm:constr type="w" for="ch" forName="accent_6" refType="h" refFor="ch" refForName="accent_6" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_6" refType="h" fact="0.8947"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_6" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_6" refType="h" fact="-0.0943"/>
+                <dgm:constr type="r" for="ch" forName="text_6" refType="ctrX" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="rOff" for="ch" forName="text_6" refType="ctrXOff" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="l" for="ch" forName="text_6"/>
+                <dgm:constr type="w" for="ch" forName="text_6" refType="h" refFor="ch" refForName="text_6" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_6" refType="h" refFor="ch" refForName="accent_6" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_6" refType="ctrY" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_6" refType="w" refFor="ch" refForName="accent_6" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name20">
+              <dgm:constrLst>
+                <dgm:constr type="h" for="ch" forName="cycle" refType="h"/>
+                <dgm:constr type="w" for="ch" forName="cycle" refType="h" refFor="ch" refForName="cycle" fact="0.26"/>
+                <dgm:constr type="r" for="ch" forName="cycle" refType="w"/>
+                <dgm:constr type="ctrY" for="ch" forName="cycle" refType="h" fact="0.5"/>
+                <dgm:constr type="diam" for="ch" forName="cycle" refType="h" fact="1.344"/>
+                <dgm:constr type="h" for="ch" forName="accent_1" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_1" refType="h" refFor="ch" refForName="accent_1" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_1" refType="h" fact="0.0909"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_1" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_1" refType="h" fact="-0.0835"/>
+                <dgm:constr type="r" for="ch" forName="text_1" refType="ctrX" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rOff" for="ch" forName="text_1" refType="ctrXOff" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="l" for="ch" forName="text_1"/>
+                <dgm:constr type="w" for="ch" forName="text_1" refType="h" refFor="ch" refForName="text_1" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_1" refType="h" refFor="ch" refForName="accent_1" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_1" refType="ctrY" refFor="ch" refForName="accent_1"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_1" refType="w" refFor="ch" refForName="accent_1" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_2" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_2" refType="h" refFor="ch" refForName="accent_2" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_2" refType="h" fact="0.2273"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_2" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_2" refType="h" fact="-0.1658"/>
+                <dgm:constr type="r" for="ch" forName="text_2" refType="ctrX" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rOff" for="ch" forName="text_2" refType="ctrXOff" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="l" for="ch" forName="text_2"/>
+                <dgm:constr type="w" for="ch" forName="text_2" refType="h" refFor="ch" refForName="text_2" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_2" refType="h" refFor="ch" refForName="accent_2" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_2" refType="ctrY" refFor="ch" refForName="accent_2"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_2" refType="w" refFor="ch" refForName="accent_2" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_3" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_3" refType="h" refFor="ch" refForName="accent_3" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_3" refType="h" fact="0.3636"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_3" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_3" refType="h" fact="-0.2109"/>
+                <dgm:constr type="r" for="ch" forName="text_3" refType="ctrX" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rOff" for="ch" forName="text_3" refType="ctrXOff" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="l" for="ch" forName="text_3"/>
+                <dgm:constr type="w" for="ch" forName="text_3" refType="h" refFor="ch" refForName="text_3" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_3" refType="h" refFor="ch" refForName="accent_3" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_3" refType="ctrY" refFor="ch" refForName="accent_3"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_3" refType="w" refFor="ch" refForName="accent_3" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_4" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_4" refType="h" refFor="ch" refForName="accent_4" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_4" refType="h" fact="0.5"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_4" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_4" refType="h" fact="-0.2253"/>
+                <dgm:constr type="r" for="ch" forName="text_4" refType="ctrX" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rOff" for="ch" forName="text_4" refType="ctrXOff" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="l" for="ch" forName="text_4"/>
+                <dgm:constr type="w" for="ch" forName="text_4" refType="h" refFor="ch" refForName="text_4" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_4" refType="h" refFor="ch" refForName="accent_4" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_4" refType="ctrY" refFor="ch" refForName="accent_4"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_4" refType="w" refFor="ch" refForName="accent_4" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_5" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_5" refType="h" refFor="ch" refForName="accent_5" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_5" refType="h" fact="0.6364"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_5" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_5" refType="h" fact="-0.2109"/>
+                <dgm:constr type="r" for="ch" forName="text_5" refType="ctrX" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rOff" for="ch" forName="text_5" refType="ctrXOff" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="l" for="ch" forName="text_5"/>
+                <dgm:constr type="w" for="ch" forName="text_5" refType="h" refFor="ch" refForName="text_5" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_5" refType="h" refFor="ch" refForName="accent_5" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_5" refType="ctrY" refFor="ch" refForName="accent_5"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_5" refType="w" refFor="ch" refForName="accent_5" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_6" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_6" refType="h" refFor="ch" refForName="accent_6" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_6" refType="h" fact="0.7727"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_6" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_6" refType="h" fact="-0.1658"/>
+                <dgm:constr type="r" for="ch" forName="text_6" refType="ctrX" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="rOff" for="ch" forName="text_6" refType="ctrXOff" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="l" for="ch" forName="text_6"/>
+                <dgm:constr type="w" for="ch" forName="text_6" refType="h" refFor="ch" refForName="text_6" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_6" refType="h" refFor="ch" refForName="accent_6" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_6" refType="ctrY" refFor="ch" refForName="accent_6"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_6" refType="w" refFor="ch" refForName="accent_6" fact="1.8"/>
+                <dgm:constr type="h" for="ch" forName="accent_7" refType="h" fact="0.1136"/>
+                <dgm:constr type="w" for="ch" forName="accent_7" refType="h" refFor="ch" refForName="accent_7" op="equ"/>
+                <dgm:constr type="ctrY" for="ch" forName="accent_7" refType="h" fact="0.9091"/>
+                <dgm:constr type="ctrX" for="ch" forName="accent_7" refType="w"/>
+                <dgm:constr type="ctrXOff" for="ch" forName="accent_7" refType="h" fact="-0.0835"/>
+                <dgm:constr type="r" for="ch" forName="text_7" refType="ctrX" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="rOff" for="ch" forName="text_7" refType="ctrXOff" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="l" for="ch" forName="text_7"/>
+                <dgm:constr type="w" for="ch" forName="text_7" refType="h" refFor="ch" refForName="text_7" op="gte"/>
+                <dgm:constr type="h" for="ch" forName="text_7" refType="h" refFor="ch" refForName="accent_7" fact="0.8"/>
+                <dgm:constr type="ctrY" for="ch" forName="text_7" refType="ctrY" refFor="ch" refForName="accent_7"/>
+                <dgm:constr type="rMarg" for="ch" forName="text_7" refType="w" refFor="ch" refForName="accent_7" fact="1.8"/>
+                <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:layoutNode name="cycle">
+        <dgm:choose name="Name21">
+          <dgm:if name="Name22" func="var" arg="dir" op="equ" val="norm">
+            <dgm:alg type="cycle">
+              <dgm:param type="stAng" val="45"/>
+              <dgm:param type="spanAng" val="90"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name23">
+            <dgm:alg type="cycle">
+              <dgm:param type="stAng" val="225"/>
+              <dgm:param type="spanAng" val="90"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" val="1"/>
+          <dgm:constr type="h" for="ch" val="1"/>
+          <dgm:constr type="diam" for="ch" forName="conn" refType="diam"/>
+        </dgm:constrLst>
+        <dgm:layoutNode name="srcNode">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="conn" styleLbl="parChTrans1D2">
+          <dgm:alg type="conn">
+            <dgm:param type="connRout" val="curve"/>
+            <dgm:param type="srcNode" val="srcNode"/>
+            <dgm:param type="dstNode" val="dstNode"/>
+            <dgm:param type="begPts" val="ctr"/>
+            <dgm:param type="endPts" val="ctr"/>
+            <dgm:param type="endSty" val="noArr"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="sibTrans" hideLastTrans="0" st="0" cnt="1"/>
+          <dgm:constrLst>
+            <dgm:constr type="begPad"/>
+            <dgm:constr type="endPad"/>
+          </dgm:constrLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="extraNode">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="dstNode">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="wrapper" axis="self" ptType="parTrans">
+        <dgm:forEach name="wrapper2" axis="self" ptType="sibTrans" st="2">
+          <dgm:forEach name="accentRepeat" axis="self">
+            <dgm:layoutNode name="accentRepeatNode" styleLbl="solidFgAcc1">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:forEach>
+      <dgm:forEach name="Name24" axis="ch" ptType="node" cnt="1">
+        <dgm:layoutNode name="text_1" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name25">
+            <dgm:if name="Name26" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name27">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_1">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name28" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name29" axis="ch" ptType="node" st="2" cnt="1">
+        <dgm:layoutNode name="text_2" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name30">
+            <dgm:if name="Name31" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name32">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_2">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name33" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name34" axis="ch" ptType="node" st="3" cnt="1">
+        <dgm:layoutNode name="text_3" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name35">
+            <dgm:if name="Name36" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name37">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_3">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name38" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name39" axis="ch" ptType="node" st="4" cnt="1">
+        <dgm:layoutNode name="text_4" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name40">
+            <dgm:if name="Name41" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name42">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_4">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name43" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name44" axis="ch" ptType="node" st="5" cnt="1">
+        <dgm:layoutNode name="text_5" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name45">
+            <dgm:if name="Name46" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name47">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_5">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name48" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name49" axis="ch" ptType="node" st="6" cnt="1">
+        <dgm:layoutNode name="text_6" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name50">
+            <dgm:if name="Name51" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name52">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_6">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name53" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+      <dgm:forEach name="Name54" axis="ch" ptType="node" st="7" cnt="1">
+        <dgm:layoutNode name="text_7" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name55">
+            <dgm:if name="Name56" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="l"/>
+                <dgm:param type="shpTxLTRAlignCh" val="l"/>
+                <dgm:param type="parTxRTLAlign" val="l"/>
+                <dgm:param type="shpTxRTLAlignCh" val="l"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name57">
+              <dgm:alg type="tx">
+                <dgm:param type="parTxLTRAlign" val="r"/>
+                <dgm:param type="shpTxLTRAlignCh" val="r"/>
+                <dgm:param type="parTxRTLAlign" val="r"/>
+                <dgm:param type="shpTxRTLAlignCh" val="r"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="primFontSz" val="65"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.2"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="accent_7">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:forEach name="Name58" ref="accentRepeat"/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="3D" pri="11200"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alingNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="matte">
+      <a:bevelT w="50800" h="19050" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="254000" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-152400" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-70000" extrusionH="63500" prstMaterial="matte">
+      <a:bevelT w="25400" h="6350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="matte">
+      <a:bevelT w="25400" h="6350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-152400" extrusionH="63500" prstMaterial="matte">
+      <a:bevelT w="25400" h="6350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="63500" prstMaterial="matte">
+      <a:bevelT w="50800" h="19050" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="63500" prstMaterial="matte">
+      <a:bevelT w="50800" h="19050" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="60000" prstMaterial="flat">
+      <a:bevelT w="120900" h="88900"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="60000" prstMaterial="flat">
+      <a:bevelT w="120900" h="88900"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="135400" h="16350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="135400" h="16350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="190500" prstMaterial="dkEdge">
+      <a:bevelT w="135400" h="16350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="35400"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="124450" h="16350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="120800" h="19050" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="190500" prstMaterial="dkEdge">
+      <a:bevelT w="120650" h="38100" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="144450" h="36350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="125400" h="36350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="190500" prstMaterial="dkEdge">
+      <a:bevelT w="120650" h="38100" prst="relaxedInset"/>
+      <a:bevelB w="120650" h="57150" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="144450" h="36350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="125400" h="36350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="125400" h="36350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="125400" h="36350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="dkEdge">
+      <a:bevelT w="125400" h="36350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="-152400" extrusionH="63500" prstMaterial="matte">
+      <a:bevelT w="144450" h="6350" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="127000" h="25400" prst="relaxedInset"/>
+      <a:bevelB w="88900" h="121750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-152400" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t">
+        <a:rot lat="0" lon="0" rev="7500000"/>
+      </a:lightRig>
+    </dgm:scene3d>
+    <dgm:sp3d z="152400" extrusionH="63500" prstMaterial="matte">
+      <a:bevelT w="50800" h="19050" prst="relaxedInset"/>
+      <a:contourClr>
+        <a:schemeClr val="bg1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5222,6 +12618,1563 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="2809875"/>
+          <a:ext cx="1952625" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MYSQL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="4476750"/>
+          <a:ext cx="1952625" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Storage Engine</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371476" y="6124575"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>InnoDB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409826" y="6143625"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MyISAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495801" y="6210300"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MEMORY</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601076" y="6334125"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>CSV</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668001" y="6362700"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>ARCHIVE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648951" y="4972050"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Mrg_MYISAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419851" y="6315075"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>PERFORMANCE_SCHEMA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629901" y="3429000"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>BLACKHOLE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangular Callout 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="8077199"/>
+          <a:ext cx="1657350" cy="1200151"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2442"/>
+            <a:gd name="adj2" fmla="val -120184"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ưu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> điểm: Hỗ trợ quan hệ giữa các bảng </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>foreign key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>transactions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> =&gt; Tính toàn vẹn dữ liệu cao.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Nhược điểm: Hoạt động tốn ram hơn MyISAM</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangular Callout 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="8134349"/>
+          <a:ext cx="1657350" cy="1200151"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2442"/>
+            <a:gd name="adj2" fmla="val -120184"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Ư</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>u</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> điểm: Full Text Index =&gt; tốc độ truy xuất (đọc và tìm kiếm) nhanh nhất.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Nhược điểm: Không ràng buộc dữ liệu. Dễ bị hỏng và crash</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangular Callout 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="8153399"/>
+          <a:ext cx="1657350" cy="1200151"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2442"/>
+            <a:gd name="adj2" fmla="val -120184"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ưu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> điểm: Lưu trực tiếp trên ram =&gt; tốc độ truy xuất và truy cập rất nhanh.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Nhược điểm: Reset sever mất hết dữ liệu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Left Arrow Callout 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="11296650"/>
+          <a:ext cx="3952876" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Transaction là một tiến trình xử lý có </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>xác định điểm đầu và điểm cuối, được chia nhỏ thành các operation (phép thực thi) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>, tiến trình được </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>thực thi một cách tuần tự và độc lập các operation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> đó theo nguyên tắc hoặc </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>tất cả đều thành công</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> hoặc </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>một operation thất bại thì toàn bộ tiến trình thất bại</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>. Nếu việc thực thi một </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>operation nào đó bị fail (hỏng) đồng nghĩa với việc dữ liệu phải rollback (trở lại) trạng thái ban đầu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Diagram 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flowchart: Predefined Process 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504826" y="14506574"/>
+          <a:ext cx="1781174" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>tính đơn vị: Một transaction xác định ranh giới của nó rất rõ ràng, tức xác định điểm bắt đầu và kết thúc của tiến trình. Như vậy có thể coi nó như một đơn vị thực thi và đơn vị thực thi này thực hiện theo nguyên tắc “all or nothing”. Nghĩa là nếu một thành phần nào đó trong transaction thực thi hỏng (fail) thì đồng nghĩa với việc không có gì xảy ra tức không có gì thay đổi về mặt dữ liệu.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Predefined Process 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790824" y="14658974"/>
+          <a:ext cx="1695451" cy="3486151"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>nhất quán: Dữ liệu nhất quán với transaction ở thời điểm bắt đầu và kết thúc. Nhất quán ở transaction là </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>strong consistency</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>. Để tìm hiểu kỹ hơn về tính nhất quán, xin đọc lại bài viết NoSQL.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Flowchart: Predefined Process 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895849" y="14649449"/>
+          <a:ext cx="1695451" cy="3409951"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>độc lập: Nếu hai transaction thực thi cùng lúc thì nguyên tắc thực thi là thực thi độc lập. Nghĩa là một transaction không thể “nhìn thấy” một transaction khác. “Không nhìn thấy” ở đây là không tác động lẫn nhau, chủ yếu trên dữ liệu.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Flowchart: Predefined Process 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="14420849"/>
+          <a:ext cx="1704976" cy="3752851"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>bền vững: Dữ liệu của transaction sau khi thực thi xong được cố định, chính thức và bền vững. Nghĩa là những thay đổi đã được cố định, không có chuyện có thể chuyển lại trạng thái dữ liệu lúc trước khi thực hiện transaction.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="vi-VN">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="9953625"/>
+          <a:ext cx="1952625" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ACID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Transaction</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15144750" y="9820275"/>
+          <a:ext cx="1952625" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Foreign</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Key</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Diagram 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5511,8 +14464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,7 +14627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
@@ -5690,12 +14643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T76" sqref="T76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -2567,6 +2567,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F217DE0E-3AA6-42BC-962A-E65BDA73CC13}" type="pres">
       <dgm:prSet presAssocID="{1BFAA318-5156-460D-9825-33CB56B141AE}" presName="roof" presStyleLbl="dkBgShp" presStyleIdx="0" presStyleCnt="2" custLinFactNeighborX="-14375" custLinFactNeighborY="10417"/>
@@ -2904,6 +2911,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" type="pres">
       <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="Name1" presStyleCnt="0"/>
@@ -2920,6 +2934,13 @@
     <dgm:pt modelId="{D08439FE-3ED9-48B1-A6D6-42BCC89C75ED}" type="pres">
       <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="conn" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FD20AFDD-498C-49AA-9F42-3CB5C54B1AF5}" type="pres">
       <dgm:prSet presAssocID="{6E146F35-C9D6-4080-A434-6C23E55B477F}" presName="extraNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="4"/>
@@ -3078,7 +3099,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="85727"/>
-          <a:ext cx="4536141" cy="822960"/>
+          <a:ext cx="4572000" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3152,7 +3173,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="85727"/>
-        <a:ext cx="4536141" cy="822960"/>
+        <a:ext cx="4572000" cy="822960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3311F06B-135E-4D6B-98B8-5ED832C93498}">
@@ -3163,7 +3184,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="822960"/>
-          <a:ext cx="1134035" cy="1728216"/>
+          <a:ext cx="1143000" cy="1728216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3267,7 +3288,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="0" y="822960"/>
-        <a:ext cx="1134035" cy="1728216"/>
+        <a:ext cx="1143000" cy="1728216"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A14A7545-86F5-4C10-A483-7F77067EC4EE}">
@@ -3277,8 +3298,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1134035" y="822960"/>
-          <a:ext cx="1134035" cy="1728216"/>
+          <a:off x="1143000" y="822960"/>
+          <a:ext cx="1143000" cy="1728216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3381,8 +3402,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1134035" y="822960"/>
-        <a:ext cx="1134035" cy="1728216"/>
+        <a:off x="1143000" y="822960"/>
+        <a:ext cx="1143000" cy="1728216"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6F59E5AC-8517-4B98-B056-F47A6266E039}">
@@ -3392,8 +3413,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2268070" y="822960"/>
-          <a:ext cx="1134035" cy="1728216"/>
+          <a:off x="2286000" y="822960"/>
+          <a:ext cx="1143000" cy="1728216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3496,8 +3517,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2268070" y="822960"/>
-        <a:ext cx="1134035" cy="1728216"/>
+        <a:off x="2286000" y="822960"/>
+        <a:ext cx="1143000" cy="1728216"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A3E18822-BF31-400F-976C-A7C56B6F945F}">
@@ -3507,8 +3528,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3402105" y="822960"/>
-          <a:ext cx="1134035" cy="1728216"/>
+          <a:off x="3429000" y="822960"/>
+          <a:ext cx="1143000" cy="1728216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3611,8 +3632,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3402105" y="822960"/>
-        <a:ext cx="1134035" cy="1728216"/>
+        <a:off x="3429000" y="822960"/>
+        <a:ext cx="1143000" cy="1728216"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A64A461B-802C-4EA4-A784-1BCCB0CEC12E}">
@@ -3623,7 +3644,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="0" y="2551176"/>
-          <a:ext cx="4536141" cy="192024"/>
+          <a:ext cx="4572000" cy="192024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,7 +3758,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="379066" y="256298"/>
-          <a:ext cx="6033549" cy="512864"/>
+          <a:ext cx="6082855" cy="512864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3814,7 +3835,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="379066" y="256298"/>
-        <a:ext cx="6033549" cy="512864"/>
+        <a:ext cx="6082855" cy="512864"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{99AE342B-3B6D-4D3C-AB44-9B44A1CD4B2D}">
@@ -3872,7 +3893,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="673103" y="1025728"/>
-          <a:ext cx="5739512" cy="512864"/>
+          <a:ext cx="5788818" cy="512864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3954,7 +3975,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="673103" y="1025728"/>
-        <a:ext cx="5739512" cy="512864"/>
+        <a:ext cx="5788818" cy="512864"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DD8F60C1-4651-456E-9207-42EF063CF9A9}">
@@ -4012,7 +4033,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="673103" y="1795157"/>
-          <a:ext cx="5739512" cy="512864"/>
+          <a:ext cx="5788818" cy="512864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4086,7 +4107,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="673103" y="1795157"/>
-        <a:ext cx="5739512" cy="512864"/>
+        <a:ext cx="5788818" cy="512864"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B76772FB-FFD0-4D90-93C3-E7804861016D}">
@@ -4144,7 +4165,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="379066" y="2564587"/>
-          <a:ext cx="6033549" cy="512864"/>
+          <a:ext cx="6082855" cy="512864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4218,7 +4239,7 @@
       </dsp:txBody>
       <dsp:txXfrm>
         <a:off x="379066" y="2564587"/>
-        <a:ext cx="6033549" cy="512864"/>
+        <a:ext cx="6082855" cy="512864"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1699E5AC-6697-4678-AC5E-00C37DEE4DF2}">
@@ -12733,15 +12754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12750,7 +12771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371476" y="6124575"/>
+          <a:off x="361951" y="6076950"/>
           <a:ext cx="1562100" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -12853,13 +12874,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:colOff>561976</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -12870,7 +12891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4495801" y="6210300"/>
+          <a:off x="4486276" y="6210300"/>
           <a:ext cx="1562100" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -14464,7 +14485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
@@ -14643,8 +14664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T76" sqref="T76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>{</t>
   </si>
@@ -560,6 +560,21 @@
   <si>
     <t>}</t>
   </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>rollback</t>
+  </si>
+  <si>
+    <t>savepoint</t>
+  </si>
+  <si>
+    <t>release savepoint</t>
+  </si>
+  <si>
+    <t>set transaction</t>
+  </si>
 </sst>
 </file>
 
@@ -598,12 +613,42 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -618,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -626,6 +671,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3044,16 +3094,16 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{ADC07144-775F-4203-B775-DE95F052A0F8}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{84CE53D7-D39F-401E-BB3A-D5545A76068F}" srcOrd="2" destOrd="0" parTransId="{16DD73E5-D81E-4615-B351-D9F495DE60F2}" sibTransId="{78CD04B9-8C2E-414C-A61F-34A30FCAAFDE}"/>
+    <dgm:cxn modelId="{3F9210E5-19B7-4A3F-81D9-03B12609A585}" type="presOf" srcId="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}" destId="{397E5E61-9355-4F61-A8E4-F9C335473227}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{8FD486D1-2F12-4305-ADD3-F9B94172A9CB}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" srcOrd="1" destOrd="0" parTransId="{02A9FC4A-6426-46C0-BCD9-8B96D20A3EBB}" sibTransId="{2D83D5C8-8D2A-4635-8092-BB08C680416F}"/>
+    <dgm:cxn modelId="{A194B43D-483B-4C43-98B0-F03B59921642}" type="presOf" srcId="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" destId="{7575D59C-E412-4245-8671-9A2FA19C7B88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{CEDBBE7E-1B9D-4ADC-9A05-82D120E05C6A}" type="presOf" srcId="{A8635DE8-5651-46B4-B14D-943F2BB67CB9}" destId="{D08439FE-3ED9-48B1-A6D6-42BCC89C75ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
     <dgm:cxn modelId="{314A52B3-B294-43AF-9BA2-D05DA7EED706}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}" srcOrd="3" destOrd="0" parTransId="{05465ADC-CA14-4110-AEE2-A455DBBCF1BC}" sibTransId="{B45D00C4-6F1F-48DB-9621-98A4FB2C7F8A}"/>
-    <dgm:cxn modelId="{CEDBBE7E-1B9D-4ADC-9A05-82D120E05C6A}" type="presOf" srcId="{A8635DE8-5651-46B4-B14D-943F2BB67CB9}" destId="{D08439FE-3ED9-48B1-A6D6-42BCC89C75ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
     <dgm:cxn modelId="{79B59F0F-76E7-4141-8424-708E61F58A08}" type="presOf" srcId="{84CE53D7-D39F-401E-BB3A-D5545A76068F}" destId="{913D56CB-EBFF-4EDA-B149-1CDB0D79D376}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
-    <dgm:cxn modelId="{3F9210E5-19B7-4A3F-81D9-03B12609A585}" type="presOf" srcId="{0B5E8AEA-1DB2-4124-B685-549EFBE41F84}" destId="{397E5E61-9355-4F61-A8E4-F9C335473227}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
     <dgm:cxn modelId="{292DA4C4-64F2-42CF-9C18-B332DEB3933C}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{03A72346-DCAE-48B7-89C7-811C871E6B51}" srcOrd="0" destOrd="0" parTransId="{C773BB93-1F64-44E5-A1FA-A6120A037B09}" sibTransId="{A8635DE8-5651-46B4-B14D-943F2BB67CB9}"/>
     <dgm:cxn modelId="{B72276D4-7200-4A07-8525-C0897F25113E}" type="presOf" srcId="{03A72346-DCAE-48B7-89C7-811C871E6B51}" destId="{28B88B0F-0536-49AC-B6A4-4D05D46FF5E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
-    <dgm:cxn modelId="{8FD486D1-2F12-4305-ADD3-F9B94172A9CB}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" srcOrd="1" destOrd="0" parTransId="{02A9FC4A-6426-46C0-BCD9-8B96D20A3EBB}" sibTransId="{2D83D5C8-8D2A-4635-8092-BB08C680416F}"/>
-    <dgm:cxn modelId="{A194B43D-483B-4C43-98B0-F03B59921642}" type="presOf" srcId="{A8DCB7DA-C7E8-478A-9945-CE57FCA9D2F6}" destId="{7575D59C-E412-4245-8671-9A2FA19C7B88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
     <dgm:cxn modelId="{B352FF68-5B8B-4CCE-A566-E10A1AA27881}" type="presOf" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{0E0AFFF5-D0B5-4C9D-9814-98CD1317491B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
+    <dgm:cxn modelId="{ADC07144-775F-4203-B775-DE95F052A0F8}" srcId="{6E146F35-C9D6-4080-A434-6C23E55B477F}" destId="{84CE53D7-D39F-401E-BB3A-D5545A76068F}" srcOrd="2" destOrd="0" parTransId="{16DD73E5-D81E-4615-B351-D9F495DE60F2}" sibTransId="{78CD04B9-8C2E-414C-A61F-34A30FCAAFDE}"/>
     <dgm:cxn modelId="{27CB8A9D-B3CE-4EE2-B087-283F18C385A6}" type="presParOf" srcId="{0E0AFFF5-D0B5-4C9D-9814-98CD1317491B}" destId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
     <dgm:cxn modelId="{52EE70BC-0178-4997-A830-D0F5D439E096}" type="presParOf" srcId="{E26C98F7-4345-4102-99F2-83B66DD93A97}" destId="{39A93D71-5D35-45BC-B0D4-2A91B2A64DCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
     <dgm:cxn modelId="{DB4FAD53-1D9F-401E-AB46-888088E1DA02}" type="presParOf" srcId="{39A93D71-5D35-45BC-B0D4-2A91B2A64DCC}" destId="{E7EB62BD-EEF9-415D-B744-721AAE52635C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/VerticalCurvedList"/>
@@ -14662,14 +14712,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="Q79:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="79" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R81" s="5"/>
+    </row>
+    <row r="82" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R82" s="7"/>
+    </row>
+    <row r="83" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R83" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
